--- a/6월/6월의 Miracle.xlsx
+++ b/6월/6월의 Miracle.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="12">
   <si>
     <t>김수빈</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -63,6 +63,14 @@
   </si>
   <si>
     <t>6월의 Miracle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -638,8 +646,8 @@
   </sheetPr>
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -777,13 +785,13 @@
         <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>8</v>
@@ -800,7 +808,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>8</v>
@@ -809,7 +817,7 @@
         <v>8</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>8</v>
@@ -823,13 +831,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>8</v>
@@ -849,7 +857,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>8</v>
@@ -968,7 +976,7 @@
         <v>8</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
@@ -988,10 +996,10 @@
         <v>8</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>8</v>
@@ -1014,7 +1022,7 @@
         <v>8</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>8</v>
@@ -1031,7 +1039,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>8</v>
@@ -1059,7 +1067,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>8</v>
@@ -1117,7 +1125,7 @@
         <v>8</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>8</v>
@@ -1140,13 +1148,13 @@
         <v>8</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>8</v>
@@ -1166,16 +1174,16 @@
         <v>8</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>8</v>
@@ -1478,27 +1486,27 @@
       </c>
       <c r="C33" s="7">
         <f t="shared" ref="C33:E33" si="0">COUNTIF(C3:C32, "O") / COUNTA(C3:C32)</f>
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D33" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E33" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="F33" s="7">
         <f>COUNTIF(F8:F32, "O") / COUNTA(F8:F32)</f>
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="G33" s="7">
         <f>COUNTIF(G10:G32, "O") / COUNTA(G10:G32)</f>
-        <v>1</v>
+        <v>0.91304347826086951</v>
       </c>
       <c r="H33" s="8">
         <f>COUNTIF(H10:H32, "O") / COUNTA(H10:H32)</f>
-        <v>1</v>
+        <v>0.95652173913043481</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">

--- a/6월/6월의 Miracle.xlsx
+++ b/6월/6월의 Miracle.xlsx
@@ -646,8 +646,8 @@
   </sheetPr>
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1249,7 +1249,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>8</v>
@@ -1258,7 +1258,7 @@
         <v>8</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>8</v>
@@ -1302,7 +1302,7 @@
         <v>8</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>8</v>
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>8</v>
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>8</v>
@@ -1363,13 +1363,13 @@
         <v>8</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
@@ -1380,7 +1380,7 @@
         <v>8</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>8</v>
@@ -1418,7 +1418,7 @@
         <v>8</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>8</v>
@@ -1444,7 +1444,7 @@
         <v>8</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>8</v>
@@ -1458,7 +1458,7 @@
         <v>8</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>8</v>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C33" s="7">
         <f t="shared" ref="C33:E33" si="0">COUNTIF(C3:C32, "O") / COUNTA(C3:C32)</f>
-        <v>0.8666666666666667</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D33" s="7">
         <f t="shared" si="0"/>
@@ -1498,15 +1498,15 @@
       </c>
       <c r="F33" s="7">
         <f>COUNTIF(F8:F32, "O") / COUNTA(F8:F32)</f>
-        <v>0.84</v>
+        <v>0.76</v>
       </c>
       <c r="G33" s="7">
         <f>COUNTIF(G10:G32, "O") / COUNTA(G10:G32)</f>
-        <v>0.91304347826086951</v>
+        <v>0.78260869565217395</v>
       </c>
       <c r="H33" s="8">
         <f>COUNTIF(H10:H32, "O") / COUNTA(H10:H32)</f>
-        <v>0.95652173913043481</v>
+        <v>0.91304347826086951</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">

--- a/6월/6월의 Miracle.xlsx
+++ b/6월/6월의 Miracle.xlsx
@@ -646,8 +646,8 @@
   </sheetPr>
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -692,7 +692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>44348</v>
       </c>
@@ -718,7 +718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>44349</v>
       </c>
@@ -744,7 +744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>44350</v>
       </c>
@@ -771,7 +771,7 @@
       </c>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>44351</v>
       </c>
@@ -797,7 +797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>44352</v>
       </c>
@@ -823,7 +823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>44353</v>
       </c>
@@ -849,7 +849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>44354</v>
       </c>
@@ -875,7 +875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>44355</v>
       </c>
@@ -901,7 +901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>44356</v>
       </c>
@@ -927,7 +927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>44357</v>
       </c>
@@ -953,7 +953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>44358</v>
       </c>
@@ -979,7 +979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>44359</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>44360</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>44361</v>
       </c>
@@ -1059,7 +1059,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>44362</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>44363</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>44364</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>44365</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>44366</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>44367</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>44368</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>44369</v>
       </c>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>44370</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>44371</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>44372</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>44373</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>44374</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>44375</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>44376</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>44377</v>
       </c>

--- a/6월/6월의 Miracle.xlsx
+++ b/6월/6월의 Miracle.xlsx
@@ -646,8 +646,8 @@
   </sheetPr>
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -692,7 +692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>44348</v>
       </c>
@@ -718,7 +718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>44349</v>
       </c>
@@ -744,7 +744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>44350</v>
       </c>
@@ -771,7 +771,7 @@
       </c>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>44351</v>
       </c>
@@ -797,7 +797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>44352</v>
       </c>
@@ -823,7 +823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>44353</v>
       </c>
@@ -849,7 +849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>44354</v>
       </c>
@@ -875,7 +875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>44355</v>
       </c>
@@ -901,7 +901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>44356</v>
       </c>
@@ -927,7 +927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>44357</v>
       </c>
@@ -953,7 +953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>44358</v>
       </c>
@@ -979,7 +979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>44359</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>44360</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>44361</v>
       </c>
@@ -1059,7 +1059,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>44362</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>44363</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>44364</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>44365</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>44366</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>44367</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>44368</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>44369</v>
       </c>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>44370</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>44371</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>44372</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>44373</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>44374</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>44375</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>44376</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>44377</v>
       </c>
@@ -1497,16 +1497,16 @@
         <v>0.9</v>
       </c>
       <c r="F33" s="7">
-        <f>COUNTIF(F8:F32, "O") / COUNTA(F8:F32)</f>
-        <v>0.76</v>
+        <f>COUNTIF(F3:F32, "O") / COUNTA(F3:F32)</f>
+        <v>0.8</v>
       </c>
       <c r="G33" s="7">
-        <f>COUNTIF(G10:G32, "O") / COUNTA(G10:G32)</f>
-        <v>0.78260869565217395</v>
+        <f>COUNTIF(G3:G32, "O") / COUNTA(G3:G32)</f>
+        <v>0.76666666666666672</v>
       </c>
       <c r="H33" s="8">
-        <f>COUNTIF(H10:H32, "O") / COUNTA(H10:H32)</f>
-        <v>0.91304347826086951</v>
+        <f>COUNTIF(H3:H32, "O") / COUNTA(H3:H32)</f>
+        <v>0.93333333333333335</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
